--- a/pacgame/Assets/loss.xlsx
+++ b/pacgame/Assets/loss.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Pac-Pal\pacgame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2F5ACF-A2D2-4F84-83C8-F505FD76442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAE8C0-719F-4FE3-8078-E2F85DF9509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Generation</t>
   </si>
@@ -360,9 +364,2354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-299.03419450089302</v>
+      </c>
+      <c r="E2">
+        <v>-0.86602539968911696</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0.93393087369058403</v>
+      </c>
+      <c r="E3">
+        <v>0.28859572818777202</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.96487476645203296</v>
+      </c>
+      <c r="E4">
+        <v>0.28871483575067203</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.96487476645203296</v>
+      </c>
+      <c r="E5">
+        <v>0.28871483575067203</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-299.03419450089302</v>
+      </c>
+      <c r="E6">
+        <v>-0.5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-299.03419450089302</v>
+      </c>
+      <c r="E7">
+        <v>-0.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.943069779902447</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.943069779902447</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.92938155699695901</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.92938155699695901</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0.92938155699695901</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.92938155699695901</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.93781342383228805</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.93781342383228805</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.93781342383228805</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.93781342383228805</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.94261816752430205</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.94261816752430205</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.94261816752430205</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.94261816752430205</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.93021925093788704</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.93021925093788704</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0.93021925093788704</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0.93021925093788704</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3C72A9-68EE-4146-AC7B-CA94B4550DA9}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0.95093598612077701</v>
+      </c>
+      <c r="E2">
+        <v>0.288636346175278</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.96605190823744502</v>
+      </c>
+      <c r="E3">
+        <v>0.28869452831597398</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-299.03419450089302</v>
+      </c>
+      <c r="E4">
+        <v>-0.86602540280722695</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.96605190823744502</v>
+      </c>
+      <c r="E5">
+        <v>0.28869452831597398</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0.95133209465731505</v>
+      </c>
+      <c r="E6">
+        <v>-0.5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0.95133209465731505</v>
+      </c>
+      <c r="E7">
+        <v>-0.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.96678664188233798</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.96678664188233798</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0.94134650425797095</v>
+      </c>
+      <c r="E10">
+        <v>-0.500000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.94134650425797095</v>
+      </c>
+      <c r="E11">
+        <v>-0.500000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0.96253526020443902</v>
+      </c>
+      <c r="E12">
+        <v>0.499999999999997</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.96253526020443902</v>
+      </c>
+      <c r="E13">
+        <v>0.499999999999997</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0.95093598612077701</v>
+      </c>
+      <c r="E14">
+        <v>-0.5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0.95093598612077701</v>
+      </c>
+      <c r="E15">
+        <v>-0.5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.96383247518099102</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.96383247518099102</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0.95120499322605601</v>
+      </c>
+      <c r="E18">
+        <v>-0.5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0.95120499322605601</v>
+      </c>
+      <c r="E19">
+        <v>-0.5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0.96540315089571105</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.96540315089571105</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0.94134650425797095</v>
+      </c>
+      <c r="E22">
+        <v>-0.500000000000003</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>0.94134650425797095</v>
+      </c>
+      <c r="E23">
+        <v>-0.500000000000003</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.96253526020443902</v>
+      </c>
+      <c r="E24">
+        <v>0.499999999999997</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0.96253526020443902</v>
+      </c>
+      <c r="E25">
+        <v>0.499999999999997</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0.94454501724102802</v>
+      </c>
+      <c r="E26">
+        <v>-0.500000000000003</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0.94454501724102802</v>
+      </c>
+      <c r="E27">
+        <v>-0.500000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0.96301648519012595</v>
+      </c>
+      <c r="E28">
+        <v>0.499999999999997</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0.96301648519012595</v>
+      </c>
+      <c r="E29">
+        <v>0.499999999999997</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0.93892373531841</v>
+      </c>
+      <c r="E30">
+        <v>-0.499999999999995</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0.93892373531841</v>
+      </c>
+      <c r="E31">
+        <v>-0.499999999999995</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.96233047626870805</v>
+      </c>
+      <c r="E32">
+        <v>0.500000000000005</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.96233047626870805</v>
+      </c>
+      <c r="E33">
+        <v>0.500000000000005</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.94092283265972299</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0.94092283265972299</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0.94092283265972299</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0.94092283265972299</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0.92533019543996198</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>0.92533019543996198</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0.92533019543996198</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0.92533019543996198</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>0.94971576175752903</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>0.94971576175752903</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0.94971576175752903</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0.94971576175752903</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3799681D-D6E7-470C-B76B-F1E70212739C}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0.93010710817862896</v>
+      </c>
+      <c r="E2">
+        <v>0.28859679382820602</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.96856615557889902</v>
+      </c>
+      <c r="E3">
+        <v>0.28874483034256698</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-299.03419450089302</v>
+      </c>
+      <c r="E4">
+        <v>-0.86602539899123598</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.95270427698261195</v>
+      </c>
+      <c r="E5">
+        <v>0.28868377482046398</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.92849444666699699</v>
+      </c>
+      <c r="E6">
+        <v>-0.47117226604986401</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.92849444666699699</v>
+      </c>
+      <c r="E7">
+        <v>-0.47117226604986401</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.968515405545328</v>
+      </c>
+      <c r="E8">
+        <v>0.70780149376882895</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.95245036845169795</v>
+      </c>
+      <c r="E9">
+        <v>0.23454303833089499</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.92326935177079394</v>
+      </c>
+      <c r="E10">
+        <v>-0.46699470411078298</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0.92326935177079394</v>
+      </c>
+      <c r="E11">
+        <v>-0.46699470411078298</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.96888853500002003</v>
+      </c>
+      <c r="E12">
+        <v>0.71964444716421805</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.94946278976181897</v>
+      </c>
+      <c r="E13">
+        <v>0.214344961057338</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.92399985195117595</v>
+      </c>
+      <c r="E14">
+        <v>-0.46754360480668</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.92399985195117595</v>
+      </c>
+      <c r="E15">
+        <v>-0.46754360480668</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.96883269050143495</v>
+      </c>
+      <c r="E16">
+        <v>0.71815476818283797</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.94988080512740403</v>
+      </c>
+      <c r="E17">
+        <v>0.21693244143051599</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.94615872575067705</v>
+      </c>
+      <c r="E18">
+        <v>-0.44691072351372702</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.94615872575067705</v>
+      </c>
+      <c r="E19">
+        <v>-0.44691072351372702</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.96761886018829601</v>
+      </c>
+      <c r="E20">
+        <v>0.76399369438550802</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.95637991666442401</v>
+      </c>
+      <c r="E21">
+        <v>0.12982775264194599</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0.94664811791708803</v>
+      </c>
+      <c r="E22">
+        <v>-0.47662188489863699</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0.94664811791708803</v>
+      </c>
+      <c r="E23">
+        <v>-0.47662188489863699</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.96721864428023296</v>
+      </c>
+      <c r="E24">
+        <v>0.69031128021655597</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0.95968487375880296</v>
+      </c>
+      <c r="E25">
+        <v>0.26293248958073001</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0.93666841420441505</v>
+      </c>
+      <c r="E26">
+        <v>-0.28867513459481497</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0.93666841420441505</v>
+      </c>
+      <c r="E27">
+        <v>-0.28867513459481497</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.96894795323974003</v>
+      </c>
+      <c r="E28">
+        <v>0.86602540378443704</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0.93666841420441505</v>
+      </c>
+      <c r="E29">
+        <v>-0.28867513459481497</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.97016646876315304</v>
+      </c>
+      <c r="E30">
+        <v>0.28867513459481198</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.97016646876315304</v>
+      </c>
+      <c r="E31">
+        <v>0.28867513459481198</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.97016646876315304</v>
+      </c>
+      <c r="E32">
+        <v>0.28867513459481198</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0.93833172216204797</v>
+      </c>
+      <c r="E33">
+        <v>-0.86602540378444004</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.93626002695770705</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.93626002695770705</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.93626002695770705</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.93626002695770705</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.93528409105116705</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.93528409105116705</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.93528409105116705</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.93528409105116705</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.93319638003911698</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.93319638003911698</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.93319638003911698</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.93319638003911698</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE3671E-7FB9-40C2-8624-55C6436C2603}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
@@ -393,16 +2742,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>-10</v>
+        <v>0.96856615557889902</v>
       </c>
       <c r="E2">
-        <v>0.114707866935281</v>
+        <v>0.28872463342717197</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -413,16 +2762,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-30</v>
+        <v>0.96844434156713999</v>
       </c>
       <c r="E3">
-        <v>-0.80295506854696597</v>
+        <v>0.28872416454903999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -433,16 +2782,371 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.93010710817862896</v>
+      </c>
+      <c r="E4">
+        <v>0.28857659950216102</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-299.03419450089302</v>
+      </c>
+      <c r="E5">
+        <v>-0.86602539747837304</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.97023041282033295</v>
+      </c>
+      <c r="E6">
+        <v>0.28867513459481298</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.97023041282033295</v>
+      </c>
+      <c r="E7">
+        <v>0.28867513459481298</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.97023041282033295</v>
+      </c>
+      <c r="E8">
+        <v>0.28867513459481298</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.93936266027019</v>
+      </c>
+      <c r="E9">
+        <v>-0.86602540378443904</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.93547781785057604</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.93547781785057604</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.93547781785057604</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.93547781785057604</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.935672279872652</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.935672279872652</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.935672279872652</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.935672279872652</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3336E577-34C0-4EBA-97A5-6D58D73C8997}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.96805229961332595</v>
+      </c>
+      <c r="E2">
+        <v>0.202727794523509</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.96605190823744502</v>
+      </c>
+      <c r="E3">
+        <v>6.4972414354545802E-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-10</v>
+        <v>0.953322061803344</v>
       </c>
       <c r="E4">
-        <v>0.114707866935281</v>
+        <v>-0.81165845706678097</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -453,16 +3157,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.97300741973903404</v>
       </c>
       <c r="E5">
-        <v>0.57353933467640394</v>
+        <v>0.54395824818872596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -476,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>-10</v>
+        <v>0.96349523268938198</v>
       </c>
       <c r="E6">
-        <v>-0.28867513459481298</v>
+        <v>0.28867513459481098</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -496,13 +3200,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>-10</v>
+        <v>0.96349523268938198</v>
       </c>
       <c r="E7">
-        <v>-0.28867513459481298</v>
+        <v>0.28867513459481098</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -513,16 +3217,16 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.94352709546731395</v>
       </c>
       <c r="E8">
-        <v>0.86602540378443904</v>
+        <v>-0.86602540378444004</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -536,13 +3240,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>0.96349523268938198</v>
       </c>
       <c r="E9">
-        <v>-0.28867513459481298</v>
+        <v>0.28867513459481098</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -559,10 +3263,10 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.93384066111507202</v>
       </c>
       <c r="E10">
-        <v>0.28867513459481298</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -579,10 +3283,10 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.93384066111507202</v>
       </c>
       <c r="E11">
-        <v>0.28867513459481298</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -599,13 +3303,13 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.93384066111507202</v>
       </c>
       <c r="E12">
-        <v>0.28867513459481298</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -616,13 +3320,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-10</v>
+        <v>0.93384066111507202</v>
       </c>
       <c r="E13">
-        <v>-0.86602540378443904</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -639,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>-10</v>
+        <v>0.94116828097068295</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -659,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>-10</v>
+        <v>0.94116828097068295</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -679,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>-10</v>
+        <v>0.94116828097068295</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -699,12 +3403,172 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>-10</v>
+        <v>0.94116828097068295</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.93964883816205302</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0.93964883816205302</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0.93964883816205302</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.93964883816205302</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0.93180010501560595</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0.93180010501560595</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0.93180010501560595</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0.93180010501560595</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
